--- a/BackTest/2020-01-25 BackTest XRP.xlsx
+++ b/BackTest/2020-01-25 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>93617.15839023002</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>133287.00054554</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>106662.34274554</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>273093.5085501601</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>358461.6559501601</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>366874.7415501601</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>361732.6637501601</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>282194.8021779001</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>227215.8729779001</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1117690.6643221</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1175994.0556221</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1164663.3801221</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1160113.9619221</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1194082.7350221</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1194082.7350221</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1192618.4096221</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1218178.4096221</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1199216.5796221</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1305279.7849221</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1818543.48873927</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1818543.48873927</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1818942.06813927</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1784460.08323927</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1784452.34629537</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1748368.37449537</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1749200.04579537</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1747328.63129537</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2065286.39127122</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2049555.14257122</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2048782.88577122</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2048782.88577122</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2056935.10737122</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2056935.10737122</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2035935.10737122</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2035935.10737122</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2178886.98247122</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2177938.85477122</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2179039.41287122</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2192570.731962929</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2192570.731962929</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2192172.676062929</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2175731.106962929</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2183909.65296293</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2181251.50346293</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2179321.00153243</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2180172.14703243</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2180163.97863243</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2180203.66873243</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2180193.14073243</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2180200.01293243</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2191721.29473243</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2191721.29473243</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2184693.04959124</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2308363.41352623</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2282344.736926229</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2282821.705426229</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2282056.619726229</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2282056.619726229</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2282056.619726229</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2262041.568526229</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2201789.10022623</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2186662.2503053</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2191505.0899053</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2182449.7361053</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2183209.7361053</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2199383.830299949</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2198883.830299949</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2203522.287799949</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2211039.021999949</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2098151.284563299</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2125188.172463299</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2125259.172463299</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2121559.712263299</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-2156656.788863299</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2161554.8814633</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2158332.7865633</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2159640.1389633</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2144535.1077633</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2134599.368863299</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-2136126.370481689</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-2119279.98718169</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2119779.98718169</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2219700.070445939</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-2307444.002045939</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-2311444.002045939</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2310410.369745939</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-2312316.584045939</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-2513539.383845939</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-2420921.843245939</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-2688680.197645939</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-2567115.175834999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-2567086.073856309</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-2585335.147356309</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2584575.228256309</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2640236.755456309</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2639540.875756309</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-2782318.213766889</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-2758890.808811159</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2740942.051111159</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2739056.051111159</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2745874.051111159</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2744955.421611159</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2744440.722411159</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-2751568.833411159</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2766356.142011159</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2756269.142011159</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2756269.142011159</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-2720903.697411159</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-2721516.789111159</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-2721516.789111159</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-2722516.789111159</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2628217.248311159</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-2746618.313911159</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-2726349.733011159</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-2735882.339911159</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-2695945.113811159</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-2703045.994511159</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-2703045.994511159</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-2692348.461911159</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2812328.609769559</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2778580.933963489</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-2759041.800963489</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2753352.479863489</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-2738196.820863489</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2704476.954063489</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2733722.102563489</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2817672.250263489</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2916855.763663489</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2941109.202863489</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2919130.903063489</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2922938.177872648</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2930395.019872649</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2926291.735172648</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2934205.918172649</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2918120.514572649</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2974531.040072649</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-3010207.792172649</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-3007648.372672649</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-3052663.386472649</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-3048799.322872649</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3051404.357472649</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-3037415.617116529</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-3078830.713878569</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-3062805.756878569</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-3053765.539663669</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2966240.913493468</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2966603.303593468</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2943526.787093468</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2942848.944736299</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-2964327.580136299</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-2976195.416036298</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-2976173.296036298</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-2964431.386274558</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3159924.988574558</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3184340.327774558</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3203659.929774558</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3227303.359374558</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3227303.359374558</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-3225250.045674558</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-3248093.039640198</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-3240001.503240198</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3228241.549475448</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3270028.300589788</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3270028.300589788</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3316681.440889788</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3315646.365289788</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3582941.438660168</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3582941.438660168</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3563769.192360168</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3563769.192360168</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3738894.016421518</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3740914.467354718</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3902993.210258508</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-4305657.055935088</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-4153169.459769539</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-4170946.184169539</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-4303548.839783159</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -32692,11 +32692,17 @@
         <v>-8955111.659187878</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>252</v>
+      </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32729,7 +32735,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32762,7 +32772,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32795,7 +32809,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +32846,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +32883,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32894,7 +32920,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32927,7 +32957,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32960,7 +32994,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32993,7 +33031,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33026,7 +33068,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33059,7 +33105,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33092,7 +33142,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33125,7 +33179,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33158,7 +33216,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33191,7 +33253,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +33290,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33327,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33290,7 +33364,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33401,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +33438,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +33475,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +33512,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33455,7 +33549,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +33586,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +33623,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +33660,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +33697,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33734,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +33771,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +33808,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +33845,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +33882,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +33919,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +33956,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +33993,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +34030,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +34067,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +34104,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34141,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +34178,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34215,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +34252,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34289,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +34326,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +34363,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +34400,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +34437,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +34474,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +34511,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,11 +34544,17 @@
         <v>-9816371.790666016</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>251.7</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34379,7 +34587,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34412,7 +34624,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +34657,17 @@
         <v>-9937242.338866016</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>251.1</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +34696,17 @@
         <v>-9937242.338866016</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>251.1</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +34735,17 @@
         <v>-10052972.0643348</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>251.1</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +34774,17 @@
         <v>-9998639.691034798</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>250.9</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34573,11 +34813,17 @@
         <v>-10137762.1741348</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>251</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34606,7 +34852,7 @@
         <v>-10218429.3414348</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1037" t="n">
         <v>250.8</v>
@@ -34614,7 +34860,7 @@
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1037" t="n">
@@ -34645,7 +34891,7 @@
         <v>-10204382.4496348</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1038" t="n">
         <v>250.7</v>
@@ -34684,7 +34930,7 @@
         <v>-10204382.4496348</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1039" t="n">
         <v>251.4</v>
@@ -34723,7 +34969,7 @@
         <v>-10282082.4242348</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1040" t="n">
         <v>251.4</v>
@@ -34762,7 +35008,7 @@
         <v>-10311296.4729348</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1041" t="n">
         <v>250.9</v>
@@ -34801,7 +35047,7 @@
         <v>-10317296.4728348</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1042" t="n">
         <v>250.8</v>
@@ -34840,7 +35086,7 @@
         <v>-10067704.4114348</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1043" t="n">
         <v>250.7</v>
@@ -34879,7 +35125,7 @@
         <v>-10072961.3108348</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>251</v>
@@ -34918,7 +35164,7 @@
         <v>-9992487.559134798</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>250.6</v>
@@ -34957,7 +35203,7 @@
         <v>-9964374.504834797</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>250.7</v>
@@ -34996,7 +35242,7 @@
         <v>-9964374.504834797</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>251</v>
@@ -35035,7 +35281,7 @@
         <v>-9944252.217842918</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>251</v>
@@ -35074,7 +35320,7 @@
         <v>-9734024.241011698</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>251.4</v>
@@ -35113,7 +35359,7 @@
         <v>-9661649.203711698</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>251.5</v>
@@ -35152,9 +35398,11 @@
         <v>-9616711.390311697</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>251.6</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35189,7 +35437,7 @@
         <v>-9615636.194825657</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>251.9</v>
@@ -35228,9 +35476,11 @@
         <v>-9495846.795925656</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>252.2</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35265,9 +35515,11 @@
         <v>-9480574.976025656</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>252.5</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35302,9 +35554,11 @@
         <v>-9493754.055925656</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>252.6</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -35339,9 +35593,11 @@
         <v>-9493754.055925656</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>252.1</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -35376,9 +35632,11 @@
         <v>-9404708.303188207</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>252.1</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35413,9 +35671,11 @@
         <v>-9392438.252288207</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>252.9</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35450,9 +35710,11 @@
         <v>-9392438.252288207</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>253</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35487,9 +35749,11 @@
         <v>-9356025.989388207</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>253</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36930,7 +37194,7 @@
         <v>-7922149.017145362</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36967,7 +37231,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -37041,7 +37305,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -37078,7 +37342,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -37115,7 +37379,7 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -37226,7 +37490,7 @@
         <v>-8082556.518906701</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -37411,7 +37675,7 @@
         <v>-8045751.252806701</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37522,7 +37786,7 @@
         <v>-8016072.520806701</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37707,7 +37971,7 @@
         <v>-7847314.28226707</v>
       </c>
       <c r="H1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37744,7 +38008,7 @@
         <v>-7844914.94076707</v>
       </c>
       <c r="H1121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -37781,7 +38045,7 @@
         <v>-7883030.75111687</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -37818,7 +38082,7 @@
         <v>-7817331.78636667</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37855,7 +38119,7 @@
         <v>-7720744.95586667</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37892,7 +38156,7 @@
         <v>-7720744.95586667</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37929,7 +38193,7 @@
         <v>-7699187.752266671</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37966,7 +38230,7 @@
         <v>-7748872.937566671</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -38003,7 +38267,7 @@
         <v>-7754000.561866671</v>
       </c>
       <c r="H1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -38077,7 +38341,7 @@
         <v>-7679198.410166671</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38151,7 +38415,7 @@
         <v>-7679682.682066672</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38373,7 +38637,7 @@
         <v>-7378254.063466672</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38447,7 +38711,7 @@
         <v>-7344454.391178502</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38595,7 +38859,7 @@
         <v>-7236961.530600112</v>
       </c>
       <c r="H1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -42014,6 +42278,6 @@
       <c r="M1236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XRP.xlsx
+++ b/BackTest/2020-01-25 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2002,7 +2002,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>273093.5085501601</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>366874.7415501601</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1117690.6643221</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1175994.0556221</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1164663.3801221</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1160113.9619221</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1194082.7350221</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1194082.7350221</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1192618.4096221</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1218178.4096221</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1199216.5796221</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1305279.7849221</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1818543.48873927</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1818543.48873927</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1818942.06813927</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1784460.08323927</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1784452.34629537</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1748368.37449537</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1749200.04579537</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1747328.63129537</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2035935.10737122</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2178886.98247122</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2177938.85477122</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2179039.41287122</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2192570.731962929</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2192570.731962929</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2192172.676062929</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2175731.106962929</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2183909.65296293</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2181251.50346293</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2179321.00153243</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2180172.14703243</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2180163.97863243</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2180203.66873243</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2180193.14073243</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2180200.01293243</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2191721.29473243</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2191721.29473243</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2184693.04959124</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2262041.568526229</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2186662.2503053</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2191505.0899053</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2182449.7361053</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2183209.7361053</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2199383.830299949</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2198883.830299949</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2203522.287799949</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2211039.021999949</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2098151.284563299</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2125188.172463299</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2125259.172463299</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2121559.712263299</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-2156656.788863299</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2161554.8814633</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2158332.7865633</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2159640.1389633</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2144535.1077633</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2134599.368863299</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-2136126.370481689</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2219700.070445939</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-2307444.002045939</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-2311444.002045939</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2310410.369745939</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-2312316.584045939</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-2513539.383845939</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-2420921.843245939</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-2688680.197645939</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-2567115.175834999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-2567086.073856309</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-2585335.147356309</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2584575.228256309</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2640236.755456309</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2639540.875756309</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-2782318.213766889</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-2758890.808811159</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2740942.051111159</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2739056.051111159</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2745874.051111159</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2744955.421611159</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2744440.722411159</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-2751568.833411159</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2766356.142011159</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2756269.142011159</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2756269.142011159</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-2720903.697411159</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-2721516.789111159</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-2721516.789111159</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-2722516.789111159</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2628217.248311159</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-2746618.313911159</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-2764134.079911159</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-2726349.733011159</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-2735882.339911159</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-2695945.113811159</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-2703045.994511159</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-2703045.994511159</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-2692348.461911159</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2812328.609769559</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2778580.933963489</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-2759041.800963489</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2753352.479863489</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-2738196.820863489</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2704476.954063489</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2733722.102563489</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2817672.250263489</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2916855.763663489</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2941109.202863489</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2919130.903063489</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2922938.177872648</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2930395.019872649</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2926291.735172648</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2934205.918172649</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2918120.514572649</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2974531.040072649</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-3010207.792172649</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-3007648.372672649</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-3052663.386472649</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-3048799.322872649</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3051404.357472649</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-3037415.617116529</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-3078830.713878569</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-3062805.756878569</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-3053765.539663669</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2966240.913493468</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2966603.303593468</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2943526.787093468</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2942848.944736299</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-2964327.580136299</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-2976195.416036298</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-2976173.296036298</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-2964431.386274558</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3159924.988574558</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3184340.327774558</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3196020.843274558</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3203659.929774558</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3227303.359374558</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3227303.359374558</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-3225250.045674558</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3228960.806074558</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-3248093.039640198</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-3240001.503240198</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3312010.263740198</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3228241.549475448</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3270028.300589788</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3270028.300589788</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3240914.014289788</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3248430.130489788</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3316681.440889788</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3315646.365289788</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3328980.999089788</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3582941.438660168</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3582941.438660168</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3563769.192360168</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3563769.192360168</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3738894.016421518</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3740914.467354718</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -32692,2138 +32692,1898 @@
         <v>-8955111.659187878</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="C980" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="D980" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="E980" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="F980" t="n">
+        <v>81075.20058787</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-8874036.458600007</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="C981" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="D981" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="E981" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="F981" t="n">
+        <v>35944.89328787</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-8909981.351887876</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="C982" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D982" t="n">
+        <v>253</v>
+      </c>
+      <c r="E982" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="F982" t="n">
+        <v>26110.7419</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-8883870.609987875</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>253</v>
+      </c>
+      <c r="C983" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D983" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="E983" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F983" t="n">
+        <v>84030.1961</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-8883870.609987875</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C984" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="D984" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="E984" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F984" t="n">
+        <v>29868.3961</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-8854002.213887876</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C985" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="D985" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="E985" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F985" t="n">
+        <v>77224.821</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-8854002.213887876</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="C986" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="D986" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="E986" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="F986" t="n">
+        <v>209418.0467</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-9063420.260587877</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="C987" t="n">
+        <v>253</v>
+      </c>
+      <c r="D987" t="n">
+        <v>253</v>
+      </c>
+      <c r="E987" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="F987" t="n">
+        <v>9926.052900000001</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-9053494.207687877</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>253</v>
+      </c>
+      <c r="C988" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="D988" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="E988" t="n">
+        <v>253</v>
+      </c>
+      <c r="F988" t="n">
+        <v>10729.88781602</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-9042764.319871858</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="C989" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="D989" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="E989" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="F989" t="n">
+        <v>22622.7881</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-9065387.107971858</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="C990" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="D990" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="E990" t="n">
+        <v>253</v>
+      </c>
+      <c r="F990" t="n">
+        <v>106595.8414</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-9065387.107971858</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="C991" t="n">
+        <v>253</v>
+      </c>
+      <c r="D991" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="E991" t="n">
+        <v>253</v>
+      </c>
+      <c r="F991" t="n">
+        <v>47881.4161</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-9113268.524071857</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C992" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D992" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="E992" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F992" t="n">
+        <v>7135.8522</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-9120404.376271857</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C993" t="n">
+        <v>253</v>
+      </c>
+      <c r="D993" t="n">
+        <v>253</v>
+      </c>
+      <c r="E993" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F993" t="n">
+        <v>16711.6</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-9103692.776271857</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>253</v>
+      </c>
+      <c r="C994" t="n">
+        <v>253</v>
+      </c>
+      <c r="D994" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="E994" t="n">
+        <v>253</v>
+      </c>
+      <c r="F994" t="n">
+        <v>56868.7033</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-9103692.776271857</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>253</v>
+      </c>
+      <c r="C995" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="D995" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="E995" t="n">
+        <v>253</v>
+      </c>
+      <c r="F995" t="n">
+        <v>112594.42564761</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-8991098.350624247</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>253</v>
+      </c>
+      <c r="C996" t="n">
+        <v>253</v>
+      </c>
+      <c r="D996" t="n">
+        <v>253</v>
+      </c>
+      <c r="E996" t="n">
+        <v>253</v>
+      </c>
+      <c r="F996" t="n">
+        <v>2170</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-8993268.350624247</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>253</v>
+      </c>
+      <c r="C997" t="n">
+        <v>253</v>
+      </c>
+      <c r="D997" t="n">
+        <v>253</v>
+      </c>
+      <c r="E997" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F997" t="n">
+        <v>56503.6767</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-8993268.350624247</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C998" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D998" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="E998" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F998" t="n">
+        <v>469.5649</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-8993737.915524246</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="C999" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="D999" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="E999" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="F999" t="n">
+        <v>12033.03236919</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-8981704.883155055</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>253</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>9368.50935823</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-8991073.392513284</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>253</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>19756.0192</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-8991073.392513284</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>4301.3322</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-8995374.724713285</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>253</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>97492.0303</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-9092866.755013285</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>253</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>22863.31781304</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-9092866.755013285</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>8189.5704405</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-9084677.184572786</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>40910.9108</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-9125588.095372787</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>81762.8327</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-9207350.928072786</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>62459.3614</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-9269810.289472787</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>904.84534455</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-9268905.444128236</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>14232.6412</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-9283138.085328236</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>84658.77741109001</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-9367796.862739326</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>73206.77280989999</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-9367796.862739326</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>96746.986</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-9367796.862739326</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>66154.11259999999</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-9433950.975339327</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>76044.181</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-9433950.975339327</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>19574.9523</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-9453525.927639326</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C1017" t="n">
         <v>252</v>
       </c>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
+      <c r="D1017" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>99585.5331</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-9353940.394539326</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>252</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>70824.3887</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-9424764.783239326</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>252</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>6851.96293968</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-9424764.783239326</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>252</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>252</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>252</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>3711.327</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-9421053.456239326</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>252</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>10736.31726032</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-9431789.773499645</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>252</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>37062.02827324</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-9394727.745226406</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>3918.74538421</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-9394727.745226406</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1454.4047</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-9394727.745226406</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>7673.69336039</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-9387054.051866015</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>28888.7922</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-9358165.259666016</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>55551.3021</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-9413716.561766017</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>43093.2637</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-9456809.825466016</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>359561.9652</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-9816371.790666016</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>89159.6388</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-9905531.429466017</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>251</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>31710.9094</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-9937242.338866016</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>251</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>251</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>29565.8941</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-9937242.338866016</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>60318.3062</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-9937242.338866016</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>115729.72546878</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-10052972.0643348</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>251</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>251</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>251</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>54332.3733</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-9998639.691034798</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>251</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>139122.4831</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-10137762.1741348</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>251</v>
+      </c>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="C980" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="D980" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E980" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="F980" t="n">
-        <v>81075.20058787</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-8874036.458600007</v>
-      </c>
-      <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="C981" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="D981" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E981" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="F981" t="n">
-        <v>35944.89328787</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-8909981.351887876</v>
-      </c>
-      <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="C982" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D982" t="n">
-        <v>253</v>
-      </c>
-      <c r="E982" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="F982" t="n">
-        <v>26110.7419</v>
-      </c>
-      <c r="G982" t="n">
-        <v>-8883870.609987875</v>
-      </c>
-      <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>253</v>
-      </c>
-      <c r="C983" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D983" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="E983" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F983" t="n">
-        <v>84030.1961</v>
-      </c>
-      <c r="G983" t="n">
-        <v>-8883870.609987875</v>
-      </c>
-      <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C984" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="D984" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="E984" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F984" t="n">
-        <v>29868.3961</v>
-      </c>
-      <c r="G984" t="n">
-        <v>-8854002.213887876</v>
-      </c>
-      <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C985" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="D985" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="E985" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F985" t="n">
-        <v>77224.821</v>
-      </c>
-      <c r="G985" t="n">
-        <v>-8854002.213887876</v>
-      </c>
-      <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="C986" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="D986" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="E986" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="F986" t="n">
-        <v>209418.0467</v>
-      </c>
-      <c r="G986" t="n">
-        <v>-9063420.260587877</v>
-      </c>
-      <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="C987" t="n">
-        <v>253</v>
-      </c>
-      <c r="D987" t="n">
-        <v>253</v>
-      </c>
-      <c r="E987" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="F987" t="n">
-        <v>9926.052900000001</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-9053494.207687877</v>
-      </c>
-      <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>253</v>
-      </c>
-      <c r="C988" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="D988" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E988" t="n">
-        <v>253</v>
-      </c>
-      <c r="F988" t="n">
-        <v>10729.88781602</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-9042764.319871858</v>
-      </c>
-      <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="C989" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="D989" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E989" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="F989" t="n">
-        <v>22622.7881</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-9065387.107971858</v>
-      </c>
-      <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="C990" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="D990" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="E990" t="n">
-        <v>253</v>
-      </c>
-      <c r="F990" t="n">
-        <v>106595.8414</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-9065387.107971858</v>
-      </c>
-      <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="C991" t="n">
-        <v>253</v>
-      </c>
-      <c r="D991" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="E991" t="n">
-        <v>253</v>
-      </c>
-      <c r="F991" t="n">
-        <v>47881.4161</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-9113268.524071857</v>
-      </c>
-      <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C992" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D992" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="E992" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F992" t="n">
-        <v>7135.8522</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-9120404.376271857</v>
-      </c>
-      <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C993" t="n">
-        <v>253</v>
-      </c>
-      <c r="D993" t="n">
-        <v>253</v>
-      </c>
-      <c r="E993" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F993" t="n">
-        <v>16711.6</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-9103692.776271857</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>253</v>
-      </c>
-      <c r="C994" t="n">
-        <v>253</v>
-      </c>
-      <c r="D994" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="E994" t="n">
-        <v>253</v>
-      </c>
-      <c r="F994" t="n">
-        <v>56868.7033</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-9103692.776271857</v>
-      </c>
-      <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>253</v>
-      </c>
-      <c r="C995" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="D995" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E995" t="n">
-        <v>253</v>
-      </c>
-      <c r="F995" t="n">
-        <v>112594.42564761</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-8991098.350624247</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>253</v>
-      </c>
-      <c r="C996" t="n">
-        <v>253</v>
-      </c>
-      <c r="D996" t="n">
-        <v>253</v>
-      </c>
-      <c r="E996" t="n">
-        <v>253</v>
-      </c>
-      <c r="F996" t="n">
-        <v>2170</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-8993268.350624247</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>253</v>
-      </c>
-      <c r="C997" t="n">
-        <v>253</v>
-      </c>
-      <c r="D997" t="n">
-        <v>253</v>
-      </c>
-      <c r="E997" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F997" t="n">
-        <v>56503.6767</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-8993268.350624247</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C998" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D998" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="E998" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F998" t="n">
-        <v>469.5649</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-8993737.915524246</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="C999" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="D999" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="E999" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="F999" t="n">
-        <v>12033.03236919</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-8981704.883155055</v>
-      </c>
-      <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>253</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>9368.50935823</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-8991073.392513284</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>253</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>19756.0192</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-8991073.392513284</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>4301.3322</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-8995374.724713285</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>253</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>97492.0303</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-9092866.755013285</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>253</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>22863.31781304</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-9092866.755013285</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>8189.5704405</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-9084677.184572786</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>40910.9108</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-9125588.095372787</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>81762.8327</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-9207350.928072786</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>62459.3614</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-9269810.289472787</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>904.84534455</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-9268905.444128236</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>14232.6412</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-9283138.085328236</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>84658.77741109001</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-9367796.862739326</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>73206.77280989999</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-9367796.862739326</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>96746.986</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-9367796.862739326</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>66154.11259999999</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-9433950.975339327</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>76044.181</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-9433950.975339327</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>19574.9523</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-9453525.927639326</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>252</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>99585.5331</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-9353940.394539326</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>252</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>70824.3887</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-9424764.783239326</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>252</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>252</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>6851.96293968</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-9424764.783239326</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>252</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>252</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>252</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>252</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>3711.327</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-9421053.456239326</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>252</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>251.9</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>252</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>251.9</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>10736.31726032</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-9431789.773499645</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>252</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>37062.02827324</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-9394727.745226406</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>3918.74538421</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-9394727.745226406</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>1454.4047</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-9394727.745226406</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>7673.69336039</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-9387054.051866015</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>28888.7922</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-9358165.259666016</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>252.3</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>55551.3021</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-9413716.561766017</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>43093.2637</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-9456809.825466016</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>359561.9652</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-9816371.790666016</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>89159.6388</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-9905531.429466017</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>251</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>31710.9094</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-9937242.338866016</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>251</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>251</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>29565.8941</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-9937242.338866016</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>60318.3062</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-9937242.338866016</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>250.9</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>250.9</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>115729.72546878</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-10052972.0643348</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>251</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>251</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>251</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>54332.3733</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-9998639.691034798</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>250.9</v>
-      </c>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>251</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>139122.4831</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-10137762.1741348</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>251</v>
-      </c>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34852,11 +34612,9 @@
         <v>-10218429.3414348</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>250.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35359,11 +35117,9 @@
         <v>-9661649.203711698</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>251.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35398,11 +35154,9 @@
         <v>-9616711.390311697</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>251.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35437,11 +35191,9 @@
         <v>-9615636.194825657</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>251.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35476,11 +35228,9 @@
         <v>-9495846.795925656</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>252.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35515,11 +35265,9 @@
         <v>-9480574.976025656</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>252.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35554,11 +35302,9 @@
         <v>-9493754.055925656</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>252.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -35593,11 +35339,9 @@
         <v>-9493754.055925656</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>252.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -35632,11 +35376,9 @@
         <v>-9404708.303188207</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>252.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35671,11 +35413,9 @@
         <v>-9392438.252288207</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1058" t="n">
-        <v>252.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35710,11 +35450,9 @@
         <v>-9392438.252288207</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35749,11 +35487,9 @@
         <v>-9356025.989388207</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36972,18 +36708,16 @@
         <v>-7954141.709736212</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1093" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1093" t="inlineStr"/>
       <c r="M1093" t="inlineStr"/>
     </row>
     <row r="1094">
@@ -37009,15 +36743,11 @@
         <v>-7765029.815136212</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37046,15 +36776,11 @@
         <v>-7630010.740536292</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37083,15 +36809,11 @@
         <v>-7687158.782736292</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37120,15 +36842,11 @@
         <v>-7775890.345636292</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37157,15 +36875,11 @@
         <v>-7832689.968036292</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37194,15 +36908,11 @@
         <v>-7922149.017145362</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37231,15 +36941,11 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37268,15 +36974,11 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37305,15 +37007,11 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37342,15 +37040,11 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37379,15 +37073,11 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37416,15 +37106,11 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37457,11 +37143,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37494,11 +37176,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37531,11 +37209,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37568,11 +37242,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37605,11 +37275,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37642,11 +37308,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37679,11 +37341,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37716,11 +37374,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37753,11 +37407,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37790,11 +37440,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37827,11 +37473,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37864,11 +37506,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37901,11 +37539,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37938,11 +37572,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37975,11 +37605,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38012,11 +37638,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38049,11 +37671,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38086,11 +37704,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38123,11 +37737,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38160,11 +37770,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38197,11 +37803,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38234,11 +37836,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38271,11 +37869,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38308,11 +37902,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38345,11 +37935,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38382,11 +37968,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38419,11 +38001,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38456,11 +38034,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38493,11 +38067,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38530,11 +38100,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38567,11 +38133,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38604,11 +38166,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38641,11 +38199,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38678,11 +38232,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38715,11 +38265,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38752,11 +38298,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38789,11 +38331,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38826,11 +38364,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38863,11 +38397,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38900,11 +38430,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38937,11 +38463,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38974,11 +38496,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39011,11 +38529,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39048,11 +38562,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39085,11 +38595,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39122,11 +38628,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39159,11 +38661,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39196,11 +38694,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39233,11 +38727,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39270,11 +38760,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39307,11 +38793,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39344,11 +38826,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39381,11 +38859,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39418,11 +38892,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39455,11 +38925,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39492,11 +38958,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39529,11 +38991,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39566,11 +39024,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39603,11 +39057,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39640,11 +39090,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39677,11 +39123,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39714,11 +39156,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39751,11 +39189,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39788,11 +39222,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39825,11 +39255,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39862,11 +39288,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39899,11 +39321,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39936,11 +39354,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39973,11 +39387,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40010,11 +39420,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40047,11 +39453,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +39486,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -40121,11 +39519,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40158,11 +39552,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40195,11 +39585,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40232,11 +39618,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40269,11 +39651,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40306,11 +39684,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40343,11 +39717,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40380,11 +39750,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40417,11 +39783,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40454,11 +39816,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40491,11 +39849,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40528,11 +39882,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40565,11 +39915,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40602,11 +39948,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40639,11 +39981,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40676,11 +40014,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40713,11 +40047,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40750,11 +40080,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40787,11 +40113,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40824,11 +40146,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40861,11 +40179,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40898,11 +40212,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40935,11 +40245,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40972,11 +40278,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41009,11 +40311,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41046,11 +40344,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41083,11 +40377,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41120,11 +40410,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41157,11 +40443,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41194,11 +40476,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41231,11 +40509,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41268,11 +40542,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41305,11 +40575,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41342,11 +40608,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41379,11 +40641,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41416,11 +40674,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41453,11 +40707,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41490,11 +40740,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41527,11 +40773,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41564,11 +40806,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41601,11 +40839,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41638,11 +40872,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41675,11 +40905,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41712,11 +40938,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41749,11 +40971,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41786,11 +41004,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41823,11 +41037,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41860,11 +41070,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41897,11 +41103,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41934,11 +41136,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41971,11 +41169,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42008,11 +41202,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42045,11 +41235,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42082,11 +41268,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42119,11 +41301,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42156,11 +41334,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42193,11 +41367,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42230,11 +41400,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42267,17 +41433,13 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
       <c r="M1236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XRP.xlsx
+++ b/BackTest/2020-01-25 BackTest XRP.xlsx
@@ -451,7 +451,7 @@
         <v>93617.15839023002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>30950.02809023001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>23277.30339023002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>68082.59699023001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>112757.02759023</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>133287.00054554</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>106662.34274554</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>98278.70754554002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>96261.98124554002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>97517.95584554003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>149368.63061844</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>126745.1451184401</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>199956.0016184401</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>203768.0016184401</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>292398.61071844</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>385932.0316184401</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>464545.2806184401</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>431238.4435205501</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>442148.5664205501</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>440129.3716205501</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>228306.9001354501</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>231844.3610036001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>200743.3846036001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>271185.1116036001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>273093.5085501601</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>273053.2801501601</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>313841.1112501601</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>308839.9871501601</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>393364.92025016</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>388364.92025016</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>388641.55405016</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>376254.2026501601</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>372418.4544501601</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>358461.6559501601</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>359069.6208501601</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>368094.6671501601</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>366874.7415501601</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>361732.6637501601</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>282194.8021779001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>227215.8729779001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>183579.8908779001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2262041.568526229</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2257328.800926229</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2201789.10022623</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2186662.2503053</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2191505.0899053</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2182449.7361053</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2183209.7361053</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2199383.830299949</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2198883.830299949</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2203522.287799949</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2211039.021999949</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2098151.284563299</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2125188.172463299</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2125259.172463299</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2121559.712263299</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-2156656.788863299</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2161554.8814633</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2158332.7865633</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2159640.1389633</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2144535.1077633</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2134599.368863299</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-2136126.370481689</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-2119279.98718169</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2119779.98718169</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2219700.070445939</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-2307444.002045939</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-2311444.002045939</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2310410.369745939</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-2312316.584045939</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-2513539.383845939</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-2420921.843245939</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-2688680.197645939</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-2567115.175834999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-2567086.073856309</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-2585335.147356309</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2584575.228256309</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2640236.755456309</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2639540.875756309</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2640665.805956309</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2640665.805956309</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-2730884.855056309</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-2782318.213766889</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-2758890.808811159</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2745874.051111159</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2628217.248311159</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-2695945.113811159</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2753352.479863489</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-2738196.820863489</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2704476.954063489</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2733722.102563489</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2817672.250263489</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2916855.763663489</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2941109.202863489</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2919130.903063489</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2922938.177872648</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2930395.019872649</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2926291.735172648</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2934205.918172649</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2918120.514572649</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2974531.040072649</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-3010207.792172649</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-3007648.372672649</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-3052663.386472649</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-3048799.322872649</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3051404.357472649</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-3037415.617116529</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-3078830.713878569</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-3062805.756878569</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-3053765.539663669</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2966240.913493468</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2966603.303593468</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2943526.787093468</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2942848.944736299</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-2964327.580136299</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-2976195.416036298</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-2976173.296036298</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-2964431.386274558</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3159924.988574558</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -34612,9 +34612,11 @@
         <v>-10218429.3414348</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>250.8</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35117,9 +35119,11 @@
         <v>-9661649.203711698</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>251.5</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35154,9 +35158,11 @@
         <v>-9616711.390311697</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>251.6</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35191,9 +35197,11 @@
         <v>-9615636.194825657</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>251.9</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36708,16 +36716,18 @@
         <v>-7954141.709736212</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="n">
+        <v>1</v>
+      </c>
       <c r="M1093" t="inlineStr"/>
     </row>
     <row r="1094">
@@ -36743,11 +36753,15 @@
         <v>-7765029.815136212</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36776,11 +36790,15 @@
         <v>-7630010.740536292</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36809,11 +36827,15 @@
         <v>-7687158.782736292</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36842,11 +36864,15 @@
         <v>-7775890.345636292</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36875,11 +36901,15 @@
         <v>-7832689.968036292</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36908,11 +36938,15 @@
         <v>-7922149.017145362</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36941,11 +36975,15 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36974,11 +37012,15 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37007,11 +37049,15 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37040,11 +37086,15 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37073,11 +37123,15 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37106,11 +37160,15 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37143,7 +37201,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37176,7 +37238,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37209,7 +37275,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37242,7 +37312,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37275,7 +37349,11 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37308,7 +37386,11 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37341,7 +37423,11 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37374,7 +37460,11 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37407,7 +37497,11 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37440,7 +37534,11 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37473,7 +37571,11 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37506,7 +37608,11 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37539,7 +37645,11 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37572,7 +37682,11 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37605,7 +37719,11 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37638,7 +37756,11 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37671,7 +37793,11 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37704,7 +37830,11 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37737,7 +37867,11 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37770,7 +37904,11 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37803,7 +37941,11 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37836,7 +37978,11 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37869,7 +38015,11 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37902,7 +38052,11 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37935,7 +38089,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37968,7 +38126,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38001,7 +38163,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38034,7 +38200,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38067,7 +38237,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38100,7 +38274,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38133,7 +38311,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38166,7 +38348,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38199,7 +38385,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38232,7 +38422,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38265,7 +38459,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38298,7 +38496,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38331,7 +38533,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38364,7 +38570,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38397,7 +38607,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38430,7 +38644,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38463,7 +38681,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38496,7 +38718,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38529,7 +38755,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38562,7 +38792,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38595,7 +38829,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38628,7 +38866,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38661,7 +38903,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38694,7 +38940,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38727,7 +38977,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38760,7 +39014,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38793,7 +39051,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38826,7 +39088,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38859,7 +39125,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38892,7 +39162,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38925,7 +39199,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38958,7 +39236,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38991,7 +39273,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39024,7 +39310,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39057,7 +39347,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39090,7 +39384,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39123,7 +39421,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39156,7 +39458,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39189,7 +39495,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39222,7 +39532,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39255,7 +39569,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39288,7 +39606,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39321,7 +39643,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39354,7 +39680,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39387,7 +39717,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39420,7 +39754,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39453,7 +39791,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39486,7 +39828,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39519,7 +39865,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39552,7 +39902,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39585,7 +39939,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39618,7 +39976,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39651,7 +40013,11 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39684,7 +40050,11 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39717,7 +40087,11 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39750,7 +40124,11 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39783,7 +40161,11 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39816,7 +40198,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39849,7 +40235,11 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39882,7 +40272,11 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39915,7 +40309,11 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39948,7 +40346,11 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39981,7 +40383,11 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40014,7 +40420,11 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40047,7 +40457,11 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40080,7 +40494,11 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40113,7 +40531,11 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40146,7 +40568,11 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40179,7 +40605,11 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40212,7 +40642,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40245,7 +40679,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40278,7 +40716,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40311,7 +40753,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40344,7 +40790,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40377,7 +40827,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40410,7 +40864,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40443,7 +40901,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40476,7 +40938,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40509,7 +40975,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40542,7 +41012,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40575,7 +41049,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40608,7 +41086,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40641,7 +41123,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40674,7 +41160,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40707,7 +41197,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40740,7 +41234,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40773,7 +41271,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40806,7 +41308,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40839,7 +41345,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40872,7 +41382,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40905,7 +41419,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40938,7 +41456,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40971,7 +41493,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41004,7 +41530,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41037,7 +41567,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41070,7 +41604,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41103,7 +41641,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41136,7 +41678,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41169,7 +41715,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41202,7 +41752,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41235,7 +41789,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41268,7 +41826,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41301,7 +41863,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41334,7 +41900,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41367,7 +41937,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41400,7 +41974,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41433,7 +42011,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
